--- a/evaluation/accuracy_metric_based/OLS_Regression_Feature_Analysis_recall@5.xlsx
+++ b/evaluation/accuracy_metric_based/OLS_Regression_Feature_Analysis_recall@5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,14 +458,14 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>popularitypercentage@5</t>
+          <t>Overestimation Unfairness of sensitive attribute</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2450296445298169</v>
+        <v>0.2399670372410528</v>
       </c>
       <c r="C2" t="n">
-        <v>3.248555362486565e-102</v>
+        <v>1.246977637011827e-17</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -476,458 +476,436 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Space Size</t>
+          <t>popularitypercentage@5</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2033545605950512</v>
+        <v>0.2341408255158305</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5193093648834712</v>
-      </c>
-      <c r="D3" t="inlineStr"/>
+        <v>3.519540077832828e-105</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Rating per User</t>
+          <t>Model Name_FOCF</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1676228598407705</v>
+        <v>0.09310992926777326</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2137774436183636</v>
-      </c>
-      <c r="D4" t="inlineStr"/>
+        <v>2.593693949877552e-24</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Skewness of Rating</t>
+          <t>const</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.09500744817244353</v>
+        <v>0.09009101477718581</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1213399207426668</v>
-      </c>
-      <c r="D5" t="inlineStr"/>
+        <v>4.37328155854114e-07</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Rating per Item</t>
+          <t>Space Size</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.08091214171348451</v>
+        <v>0.06567193958521655</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6763958375964207</v>
+        <v>0.5479933355183861</v>
       </c>
       <c r="D6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Standart Deviation of Rating</t>
+          <t>Sensitive Feature_Age</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.07385626200816479</v>
+        <v>0.04506549757160849</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2289355461303801</v>
-      </c>
-      <c r="D7" t="inlineStr"/>
+        <v>4.375922655407659e-07</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Mean Rating</t>
+          <t>Sensitive Feature_Gender</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.06143170426817343</v>
+        <v>0.0450255172055774</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1357258405245068</v>
-      </c>
-      <c r="D8" t="inlineStr"/>
+        <v>1.331410456005588e-06</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Kurtosis of Rating</t>
+          <t>Standart Deviation of Popularity Bias</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0545642912437312</v>
+        <v>0.03861056592940054</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2982205945346844</v>
+        <v>0.3166170603859646</v>
       </c>
       <c r="D9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Model Name_FOCF</t>
+          <t>giniindex@5</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.05329356948003541</v>
+        <v>0.03550552757463711</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0008127870498876439</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>0.1255232821593624</v>
+      </c>
+      <c r="D10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Skewness of Long Tail Items</t>
+          <t>Model Name_FairGo_PMF</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.05232670320204155</v>
+        <v>0.03345525702661915</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3898227488326678</v>
-      </c>
-      <c r="D11" t="inlineStr"/>
+        <v>0.005145830527810092</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Standart Deviation of Popularity Bias</t>
+          <t>Skewness of Long Tail Items</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.04352336808130092</v>
+        <v>0.02257422885345826</v>
       </c>
       <c r="C12" t="n">
-        <v>0.4427703507136638</v>
-      </c>
-      <c r="D12" t="inlineStr"/>
+        <v>0.03639189926347117</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Skewness of Popularity Bias</t>
+          <t>Number of Users</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.02067208923735704</v>
+        <v>0.01837463375120444</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3734477240179299</v>
+        <v>0.6887900370001867</v>
       </c>
       <c r="D13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Shape</t>
+          <t>Average Popularity</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.01592346527298843</v>
+        <v>0.0129901628045351</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7413192799911257</v>
+        <v>0.6194156995794069</v>
       </c>
       <c r="D14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>giniindex@5</t>
+          <t>Skewness of Popularity Bias</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.01039086691645303</v>
+        <v>0.005328296682933788</v>
       </c>
       <c r="C15" t="n">
-        <v>0.677705796183228</v>
+        <v>0.5421533628520863</v>
       </c>
       <c r="D15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>const</t>
+          <t>Shape</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.009947975158083371</v>
+        <v>0.0004261910300258666</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8686736294461039</v>
+        <v>0.9893452216153027</v>
       </c>
       <c r="D16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Average Popularity</t>
+          <t>Dataset_ml1m</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.006479786961242247</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.8819631841188451</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Sensitive Feature_Age</t>
+          <t>Standart Deviation of Rating</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.005267557676091784</v>
+        <v>-0.006846019400952399</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8611227200521212</v>
+        <v>0.5311903551634999</v>
       </c>
       <c r="D18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Sensitive Feature_Gender</t>
+          <t>Model Name_PFCN_MLP</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.00468041748199232</v>
+        <v>-0.007180614544607805</v>
       </c>
       <c r="C19" t="n">
-        <v>0.8765722830048021</v>
+        <v>0.3570988973784277</v>
       </c>
       <c r="D19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Gini Item</t>
+          <t>Mean Rating</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.004542264212744332</v>
+        <v>-0.01502175463545135</v>
       </c>
       <c r="C20" t="n">
-        <v>0.8520734840930232</v>
+        <v>0.1511385199627034</v>
       </c>
       <c r="D20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Dataset_ml1m</t>
+          <t>Difference between Sensitive Attribute Percentage</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
-      </c>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
+        <v>-0.02111220915156761</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.04549968499971394</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Average Long Tail Items</t>
+          <t>Gini User</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.005443815821493159</v>
+        <v>-0.02273167213206912</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9206383586542826</v>
-      </c>
-      <c r="D22" t="inlineStr"/>
+        <v>0.01978315484755147</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Difference between Sensitive Attribute Percentage</t>
+          <t>Model Name_NFCF</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0.006530385238261599</v>
+        <v>-0.02929355697259788</v>
       </c>
       <c r="C23" t="n">
-        <v>0.5853794755593651</v>
-      </c>
-      <c r="D23" t="inlineStr"/>
+        <v>0.0004051725269894863</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Gini User</t>
+          <t>Generalized Cross Entropy</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-0.006572423814316497</v>
+        <v>-0.03992799882519235</v>
       </c>
       <c r="C24" t="n">
-        <v>0.6056886654156134</v>
-      </c>
-      <c r="D24" t="inlineStr"/>
+        <v>0.008574217745085721</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Model Name_NFCF</t>
+          <t>Differential Fairness of sensitive attribute</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-0.007201806496442951</v>
+        <v>-0.04483318650942139</v>
       </c>
       <c r="C25" t="n">
-        <v>0.6503762032277343</v>
-      </c>
-      <c r="D25" t="inlineStr"/>
+        <v>0.03215828770259933</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Model Name_PFCN_MLP</t>
+          <t>Number of Ratings</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-0.008722136499049404</v>
+        <v>-0.1068657700044317</v>
       </c>
       <c r="C26" t="n">
-        <v>0.591425191211875</v>
+        <v>0.2319437496202559</v>
       </c>
       <c r="D26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Kurtosis of Popularity Bias</t>
+          <t>Density</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-0.01834287536474647</v>
+        <v>-0.1075055630656505</v>
       </c>
       <c r="C27" t="n">
-        <v>0.324469953966516</v>
-      </c>
-      <c r="D27" t="inlineStr"/>
+        <v>2.369688499770045e-08</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Model Name_FairGo_PMF</t>
+          <t>Value Unfairness of sensitive attribute</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-0.02742165132645026</v>
+        <v>-0.1141976873078695</v>
       </c>
       <c r="C28" t="n">
-        <v>0.1147181654234345</v>
-      </c>
-      <c r="D28" t="inlineStr"/>
+        <v>0.0001026236554410252</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Standart Deviation of Long Tail Items</t>
+          <t>Number of Items</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-0.04749633976472298</v>
+        <v>-0.1472544236138735</v>
       </c>
       <c r="C29" t="n">
-        <v>0.344423893486774</v>
-      </c>
-      <c r="D29" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Kurtosis of Long Tail Items</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>-0.05014818525929705</v>
-      </c>
-      <c r="C30" t="n">
-        <v>0.4382151180247822</v>
-      </c>
-      <c r="D30" t="inlineStr"/>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Number of Users</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>-0.1032433413996743</v>
-      </c>
-      <c r="C31" t="n">
-        <v>0.6174836144102407</v>
-      </c>
-      <c r="D31" t="inlineStr"/>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Density</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>-0.1321251779212892</v>
-      </c>
-      <c r="C32" t="n">
-        <v>0.0212350515826487</v>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Number of Ratings</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
-        <v>-0.1709616502360017</v>
-      </c>
-      <c r="C33" t="n">
-        <v>0.56345857566548</v>
-      </c>
-      <c r="D33" t="inlineStr"/>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Number of Items</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>-0.2761954600818489</v>
-      </c>
-      <c r="C34" t="n">
-        <v>0.02303041949883029</v>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>*</t>
+        <v>8.146548863591414e-09</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>***</t>
         </is>
       </c>
     </row>

--- a/evaluation/accuracy_metric_based/OLS_Regression_Feature_Analysis_recall@5.xlsx
+++ b/evaluation/accuracy_metric_based/OLS_Regression_Feature_Analysis_recall@5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,14 +458,14 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Standart Deviation of Popularity Bias</t>
+          <t>popularitypercentage@5</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2546645985041406</v>
+        <v>0.2441810126330502</v>
       </c>
       <c r="C2" t="n">
-        <v>2.11599228045277e-09</v>
+        <v>1.824681922672984e-169</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -476,14 +476,14 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>popularitypercentage@5</t>
+          <t>Overestimation Unfairness of sensitive attribute</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2493783740759663</v>
+        <v>0.1262405752706144</v>
       </c>
       <c r="C3" t="n">
-        <v>8.646958870438948e-161</v>
+        <v>3.389913032041491e-13</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -494,50 +494,50 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Space Size</t>
+          <t>Shape</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1138010989083992</v>
+        <v>0.1232607930673549</v>
       </c>
       <c r="C4" t="n">
-        <v>0.00265250942713661</v>
+        <v>4.578439369103244e-08</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>**</t>
+          <t>***</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Dataset_ml1m</t>
+          <t>Number of Ratings</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1086670368879959</v>
+        <v>0.1085747852710668</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01173775255803684</v>
+        <v>0.0002567936743944527</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>***</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Shape</t>
+          <t>Model Name_FOCF</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.09730939798746172</v>
+        <v>0.06935689270603237</v>
       </c>
       <c r="C6" t="n">
-        <v>1.990297151533981e-09</v>
+        <v>2.286172004518551e-32</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -548,54 +548,54 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Differential Fairness of sensitive attribute</t>
+          <t>giniindex@5</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.08204659033008838</v>
+        <v>0.0664726898887608</v>
       </c>
       <c r="C7" t="n">
-        <v>5.90548209319097e-05</v>
+        <v>0.00211059838458938</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>***</t>
+          <t>**</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Model Name_FOCF</t>
+          <t>Differential Fairness of sensitive attribute</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.06655136772921616</v>
+        <v>0.04517690641508457</v>
       </c>
       <c r="C8" t="n">
-        <v>3.434535544269424e-16</v>
+        <v>0.009724903340785825</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>***</t>
+          <t>**</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Overestimation Unfairness of sensitive attribute</t>
+          <t>Dataset_ml1m</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.06570629815395876</v>
+        <v>0.0307551680308578</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0005503797498281381</v>
+        <v>0.04281569460190087</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>***</t>
+          <t>*</t>
         </is>
       </c>
     </row>
@@ -606,10 +606,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.05900904524636993</v>
+        <v>0.02636391441899094</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01227312644647391</v>
+        <v>0.04992359075860154</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -624,310 +624,250 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.03204612877060983</v>
+        <v>0.01558011450074941</v>
       </c>
       <c r="C11" t="n">
-        <v>0.01367083089704041</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
+        <v>0.06383342204173761</v>
+      </c>
+      <c r="D11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Standart Deviation of Rating</t>
+          <t>Sensitive Feature_Gender</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.02984597869214318</v>
+        <v>0.01078379991824228</v>
       </c>
       <c r="C12" t="n">
-        <v>0.4168952569240778</v>
+        <v>0.0823780921719503</v>
       </c>
       <c r="D12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Skewness of Long Tail Items</t>
+          <t>Model Name_FairGo_PMF</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.02750719322962204</v>
+        <v>0.0009298997688024085</v>
       </c>
       <c r="C13" t="n">
-        <v>0.03405053689638154</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
+        <v>0.889968509343676</v>
+      </c>
+      <c r="D13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Sensitive Feature_Gender</t>
+          <t>Skewness of Long Tail Items</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.02696291647575844</v>
+        <v>-0.001101836996089399</v>
       </c>
       <c r="C14" t="n">
-        <v>0.01889633793601176</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
+        <v>0.9311088963352503</v>
+      </c>
+      <c r="D14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Difference between Sensitive Attribute Percentage</t>
+          <t>Generalized Cross Entropy</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.004078955977092721</v>
+        <v>-0.003740734703671065</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8990176590900252</v>
+        <v>0.7932685329608546</v>
       </c>
       <c r="D15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Generalized Cross Entropy</t>
+          <t>Dataset_BX</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.001487244161487086</v>
+        <v>-0.004391253611865938</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9283165536598849</v>
+        <v>0.6921958164470698</v>
       </c>
       <c r="D16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Model Name_FairGo_PMF</t>
+          <t>Model Name_PFCN_MLP</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.001468171993355555</v>
+        <v>-0.01711999997738563</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8829942908462932</v>
-      </c>
-      <c r="D17" t="inlineStr"/>
+        <v>0.0004680137425319216</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Model Name_PFCN_MLP</t>
+          <t>Difference between Sensitive Attribute Percentage</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.001978813736672789</v>
+        <v>-0.01799223015888743</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7653552591978994</v>
+        <v>0.531738922824755</v>
       </c>
       <c r="D18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Model Name_NFCF</t>
+          <t>Density</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.00409533675281745</v>
+        <v>-0.02493169616474995</v>
       </c>
       <c r="C19" t="n">
-        <v>0.5537668583287723</v>
+        <v>0.2737548040208934</v>
       </c>
       <c r="D19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Skewness of Popularity Bias</t>
+          <t>Model Name_NFCF</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.01686611303306327</v>
+        <v>-0.02680287807845924</v>
       </c>
       <c r="C20" t="n">
-        <v>0.2038416534233325</v>
-      </c>
-      <c r="D20" t="inlineStr"/>
+        <v>2.022124063314613e-06</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>giniindex@5</t>
+          <t>Value Unfairness of sensitive attribute</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.02238272813429143</v>
+        <v>-0.02790676728471356</v>
       </c>
       <c r="C21" t="n">
-        <v>0.3879839809331981</v>
-      </c>
-      <c r="D21" t="inlineStr"/>
+        <v>0.04705427037458006</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Number of Ratings</t>
+          <t>Average Long Tail Items</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.031647186657613</v>
+        <v>-0.06585229141301766</v>
       </c>
       <c r="C22" t="n">
-        <v>0.06523569405943994</v>
-      </c>
-      <c r="D22" t="inlineStr"/>
+        <v>4.239935440963274e-05</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Value Unfairness of sensitive attribute</t>
+          <t>Rating per Item</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0.04020138685156019</v>
+        <v>-0.07156446150691183</v>
       </c>
       <c r="C23" t="n">
-        <v>0.01208699288582906</v>
+        <v>0.001068735833297138</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>**</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Dataset_BX</t>
+          <t>Number of Items</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-0.04965799164162694</v>
+        <v>-0.08396182260949553</v>
       </c>
       <c r="C24" t="n">
-        <v>0.1245473390274772</v>
-      </c>
-      <c r="D24" t="inlineStr"/>
+        <v>6.266727362795363e-05</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Gini User</t>
+          <t>Number of Users</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-0.06193839655041734</v>
+        <v>-0.118551035954457</v>
       </c>
       <c r="C25" t="n">
-        <v>0.001318692392835054</v>
+        <v>1.034542817519815e-08</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>**</t>
+          <t>***</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Number of Items</t>
+          <t>Rating per User</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-0.07906515018417454</v>
+        <v>-0.1916528704650566</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0006102455578169683</v>
+        <v>2.862054619637245e-42</v>
       </c>
       <c r="D26" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Mean Rating</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>-0.09648229940171656</v>
-      </c>
-      <c r="C27" t="n">
-        <v>0.2027219006713823</v>
-      </c>
-      <c r="D27" t="inlineStr"/>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Number of Users</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>-0.09965901109913508</v>
-      </c>
-      <c r="C28" t="n">
-        <v>0.002305579602891006</v>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>**</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Density</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>-0.1434100259936967</v>
-      </c>
-      <c r="C29" t="n">
-        <v>2.54782363892389e-05</v>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Average Popularity</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>-0.1770181352522234</v>
-      </c>
-      <c r="C30" t="n">
-        <v>0.0004933401814687364</v>
-      </c>
-      <c r="D30" t="inlineStr">
         <is>
           <t>***</t>
         </is>

--- a/evaluation/accuracy_metric_based/OLS_Regression_Feature_Analysis_recall@5.xlsx
+++ b/evaluation/accuracy_metric_based/OLS_Regression_Feature_Analysis_recall@5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,110 +458,86 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>popularitypercentage@5</t>
+          <t>const</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2441810126330502</v>
+        <v>18975347949.92972</v>
       </c>
       <c r="C2" t="n">
-        <v>1.824681922672984e-169</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>0.8799576879445062</v>
+      </c>
+      <c r="D2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Overestimation Unfairness of sensitive attribute</t>
+          <t>Dataset_ml1m</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1262405752706144</v>
+        <v>13507730731.55426</v>
       </c>
       <c r="C3" t="n">
-        <v>3.389913032041491e-13</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>0.8799576879439744</v>
+      </c>
+      <c r="D3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Shape</t>
+          <t>Dataset_BX</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1232607930673549</v>
+        <v>13507730731.42554</v>
       </c>
       <c r="C4" t="n">
-        <v>4.578439369103244e-08</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>0.8799576879451075</v>
+      </c>
+      <c r="D4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Number of Ratings</t>
+          <t>Model Name_FOCF</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1085747852710668</v>
+        <v>8882132577.163651</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0002567936743944527</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>0.8799576879430583</v>
+      </c>
+      <c r="D5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Model Name_FOCF</t>
+          <t>Model Name_PFCN_MLP</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.06935689270603237</v>
+        <v>8882132577.039108</v>
       </c>
       <c r="C6" t="n">
-        <v>2.286172004518551e-32</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>0.8799576879447293</v>
+      </c>
+      <c r="D6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>giniindex@5</t>
+          <t>Model Name_NFCF</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.0664726898887608</v>
+        <v>8882132576.956665</v>
       </c>
       <c r="C7" t="n">
-        <v>0.00211059838458938</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>**</t>
-        </is>
-      </c>
+        <v>0.8799576879458353</v>
+      </c>
+      <c r="D7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -570,200 +546,204 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.04517690641508457</v>
+        <v>0.1890588329372053</v>
       </c>
       <c r="C8" t="n">
-        <v>0.009724903340785825</v>
+        <v>1.037885007261003e-15</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>**</t>
+          <t>***</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Dataset_ml1m</t>
+          <t>Gini Item</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0307551680308578</v>
+        <v>0.1817679364846178</v>
       </c>
       <c r="C9" t="n">
-        <v>0.04281569460190087</v>
+        <v>3.491860605283934e-05</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>***</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>const</t>
+          <t>KS Statistic of sensitive attribute</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.02636391441899094</v>
+        <v>0.1092379890135721</v>
       </c>
       <c r="C10" t="n">
-        <v>0.04992359075860154</v>
+        <v>3.065521446989026e-11</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>***</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Sensitive Feature_Age</t>
+          <t>Shape</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.01558011450074941</v>
+        <v>0.0970540116432865</v>
       </c>
       <c r="C11" t="n">
-        <v>0.06383342204173761</v>
-      </c>
-      <c r="D11" t="inlineStr"/>
+        <v>0.008090098997474638</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Sensitive Feature_Gender</t>
+          <t>Number of Ratings</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.01078379991824228</v>
+        <v>0.06283718799821594</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0823780921719503</v>
+        <v>0.2281392129418828</v>
       </c>
       <c r="D12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Model Name_FairGo_PMF</t>
+          <t>Overestimation Unfairness of sensitive attribute</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.0009298997688024085</v>
+        <v>0.05796763627179487</v>
       </c>
       <c r="C13" t="n">
-        <v>0.889968509343676</v>
-      </c>
-      <c r="D13" t="inlineStr"/>
+        <v>0.02459911244960364</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Skewness of Long Tail Items</t>
+          <t>Generalized Cross Entropy</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.001101836996089399</v>
+        <v>0.05383585209824453</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9311088963352503</v>
-      </c>
-      <c r="D14" t="inlineStr"/>
+        <v>0.02482000722119177</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Generalized Cross Entropy</t>
+          <t>Skewness of Popularity Bias</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.003740734703671065</v>
+        <v>0.03198566993476762</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7932685329608546</v>
+        <v>0.09889051406472703</v>
       </c>
       <c r="D15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Dataset_BX</t>
+          <t>Rating per Item</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.004391253611865938</v>
+        <v>0.01435220995588093</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6921958164470698</v>
+        <v>0.7055768270790029</v>
       </c>
       <c r="D16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Model Name_PFCN_MLP</t>
+          <t>Standart Deviation of Rating</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.01711999997738563</v>
+        <v>0.01306094385424523</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0004680137425319216</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>0.8139419855001655</v>
+      </c>
+      <c r="D17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Difference between Sensitive Attribute Percentage</t>
+          <t>Number of Users</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.01799223015888743</v>
+        <v>-0.000106738260715486</v>
       </c>
       <c r="C18" t="n">
-        <v>0.531738922824755</v>
+        <v>0.9974507183486647</v>
       </c>
       <c r="D18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Density</t>
+          <t>Skewness of Long Tail Items</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.02493169616474995</v>
+        <v>-0.01616586698055774</v>
       </c>
       <c r="C19" t="n">
-        <v>0.2737548040208934</v>
+        <v>0.4193744241977434</v>
       </c>
       <c r="D19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Model Name_NFCF</t>
+          <t>Difference between Sensitive Attribute Percentage</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.02680287807845924</v>
+        <v>-0.03756929480144184</v>
       </c>
       <c r="C20" t="n">
-        <v>2.022124063314613e-06</v>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>0.3906562599994899</v>
+      </c>
+      <c r="D20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -772,52 +752,40 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.02790676728471356</v>
+        <v>-0.04175695180928574</v>
       </c>
       <c r="C21" t="n">
-        <v>0.04705427037458006</v>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
+        <v>0.05053704259354348</v>
+      </c>
+      <c r="D21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Average Long Tail Items</t>
+          <t>Mean Rating</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.06585229141301766</v>
+        <v>-0.04371062773941881</v>
       </c>
       <c r="C22" t="n">
-        <v>4.239935440963274e-05</v>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>0.6811356924570439</v>
+      </c>
+      <c r="D22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Rating per Item</t>
+          <t>Gini User</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0.07156446150691183</v>
+        <v>-0.04431534268850573</v>
       </c>
       <c r="C23" t="n">
-        <v>0.001068735833297138</v>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>**</t>
-        </is>
-      </c>
+        <v>0.1158121818672547</v>
+      </c>
+      <c r="D23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -826,52 +794,94 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-0.08396182260949553</v>
+        <v>-0.05542979976371237</v>
       </c>
       <c r="C24" t="n">
-        <v>6.266727362795363e-05</v>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>0.1754744763634741</v>
+      </c>
+      <c r="D24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Number of Users</t>
+          <t>Average Long Tail Items</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-0.118551035954457</v>
+        <v>-0.09207343256046649</v>
       </c>
       <c r="C25" t="n">
-        <v>1.034542817519815e-08</v>
+        <v>0.007008651585492309</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>***</t>
+          <t>**</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
+          <t>Density</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>-0.1065748205498003</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.006231328507627021</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
           <t>Rating per User</t>
         </is>
       </c>
-      <c r="B26" t="n">
-        <v>-0.1916528704650566</v>
-      </c>
-      <c r="C26" t="n">
-        <v>2.862054619637245e-42</v>
-      </c>
-      <c r="D26" t="inlineStr">
+      <c r="B27" t="n">
+        <v>-0.1674288090733634</v>
+      </c>
+      <c r="C27" t="n">
+        <v>3.70534308181899e-15</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>***</t>
         </is>
       </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Sensitive Feature_Age</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>-41365211258.41577</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.8799576879446878</v>
+      </c>
+      <c r="D28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Sensitive Feature_Gender</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>-41365211258.42932</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.8799576879446489</v>
+      </c>
+      <c r="D29" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/evaluation/accuracy_metric_based/OLS_Regression_Feature_Analysis_recall@5.xlsx
+++ b/evaluation/accuracy_metric_based/OLS_Regression_Feature_Analysis_recall@5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,10 +462,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>18975347949.92972</v>
+        <v>10804857885.651</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8799576879445062</v>
+        <v>0.9215514181912757</v>
       </c>
       <c r="D2" t="inlineStr"/>
     </row>
@@ -476,10 +476,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13507730731.55426</v>
+        <v>7127554494.922028</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8799576879439744</v>
+        <v>0.9215514181904164</v>
       </c>
       <c r="D3" t="inlineStr"/>
     </row>
@@ -490,10 +490,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>13507730731.42554</v>
+        <v>7127554494.761841</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8799576879451075</v>
+        <v>0.9215514181921722</v>
       </c>
       <c r="D4" t="inlineStr"/>
     </row>
@@ -504,10 +504,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8882132577.163651</v>
+        <v>4721509136.258713</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8799576879430583</v>
+        <v>0.9215514181894879</v>
       </c>
       <c r="D5" t="inlineStr"/>
     </row>
@@ -518,10 +518,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8882132577.039108</v>
+        <v>4721509136.135773</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8799576879447293</v>
+        <v>0.9215514181915243</v>
       </c>
       <c r="D6" t="inlineStr"/>
     </row>
@@ -532,10 +532,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8882132576.956665</v>
+        <v>4721509136.053757</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8799576879458353</v>
+        <v>0.9215514181928827</v>
       </c>
       <c r="D7" t="inlineStr"/>
     </row>
@@ -546,10 +546,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1890588329372053</v>
+        <v>0.1836960146603769</v>
       </c>
       <c r="C8" t="n">
-        <v>1.037885007261003e-15</v>
+        <v>6.137370191109636e-15</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -564,10 +564,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.1817679364846178</v>
+        <v>0.1381778295403043</v>
       </c>
       <c r="C9" t="n">
-        <v>3.491860605283934e-05</v>
+        <v>0.0007222700242652128</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -582,10 +582,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.1092379890135721</v>
+        <v>0.1058213492875401</v>
       </c>
       <c r="C10" t="n">
-        <v>3.065521446989026e-11</v>
+        <v>1.238767206067939e-10</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -596,46 +596,46 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Shape</t>
+          <t>Rating per Item</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.0970540116432865</v>
+        <v>0.06340545848077792</v>
       </c>
       <c r="C11" t="n">
-        <v>0.008090098997474638</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>**</t>
-        </is>
-      </c>
+        <v>0.05844266342452633</v>
+      </c>
+      <c r="D11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Number of Ratings</t>
+          <t>Overestimation Unfairness of sensitive attribute</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.06283718799821594</v>
+        <v>0.0533587400408802</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2281392129418828</v>
-      </c>
-      <c r="D12" t="inlineStr"/>
+        <v>0.03879145450175647</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Overestimation Unfairness of sensitive attribute</t>
+          <t>Generalized Cross Entropy</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.05796763627179487</v>
+        <v>0.04807609552366626</v>
       </c>
       <c r="C13" t="n">
-        <v>0.02459911244960364</v>
+        <v>0.04499405714318765</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -646,74 +646,70 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Generalized Cross Entropy</t>
+          <t>Shape</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.05383585209824453</v>
+        <v>0.04237825883532416</v>
       </c>
       <c r="C14" t="n">
-        <v>0.02482000722119177</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
+        <v>0.1659854740433405</v>
+      </c>
+      <c r="D14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Skewness of Popularity Bias</t>
+          <t>Number of Ratings</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.03198566993476762</v>
+        <v>0.02226731429593441</v>
       </c>
       <c r="C15" t="n">
-        <v>0.09889051406472703</v>
+        <v>0.6564654067908428</v>
       </c>
       <c r="D15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Rating per Item</t>
+          <t>Skewness of Popularity Bias</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.01435220995588093</v>
+        <v>0.01901099996922841</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7055768270790029</v>
+        <v>0.3135269914755704</v>
       </c>
       <c r="D16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Standart Deviation of Rating</t>
+          <t>Number of Users</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.01306094385424523</v>
+        <v>0.01895883609083423</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8139419855001655</v>
+        <v>0.5628796263794136</v>
       </c>
       <c r="D17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Number of Users</t>
+          <t>Number of Items</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.000106738260715486</v>
+        <v>0.01831141174264909</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9974507183486647</v>
+        <v>0.5483944298281048</v>
       </c>
       <c r="D18" t="inlineStr"/>
     </row>
@@ -724,94 +720,98 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.01616586698055774</v>
+        <v>0.005573991996528464</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4193744241977434</v>
+        <v>0.7619263609785027</v>
       </c>
       <c r="D19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Difference between Sensitive Attribute Percentage</t>
+          <t>Standart Deviation of Rating</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.03756929480144184</v>
+        <v>-0.004464197366546439</v>
       </c>
       <c r="C20" t="n">
-        <v>0.3906562599994899</v>
+        <v>0.9356741291481981</v>
       </c>
       <c r="D20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Value Unfairness of sensitive attribute</t>
+          <t>Mean Rating</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.04175695180928574</v>
+        <v>-0.03156653961399447</v>
       </c>
       <c r="C21" t="n">
-        <v>0.05053704259354348</v>
+        <v>0.7672760412066514</v>
       </c>
       <c r="D21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Mean Rating</t>
+          <t>Value Unfairness of sensitive attribute</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.04371062773941881</v>
+        <v>-0.03926810463679162</v>
       </c>
       <c r="C22" t="n">
-        <v>0.6811356924570439</v>
+        <v>0.06674510793311036</v>
       </c>
       <c r="D22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Gini User</t>
+          <t>Difference between Sensitive Attribute Percentage</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0.04431534268850573</v>
+        <v>-0.04232805633002051</v>
       </c>
       <c r="C23" t="n">
-        <v>0.1158121818672547</v>
+        <v>0.3350105632566966</v>
       </c>
       <c r="D23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Number of Items</t>
+          <t>Gini User</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-0.05542979976371237</v>
+        <v>-0.05837107658000636</v>
       </c>
       <c r="C24" t="n">
-        <v>0.1754744763634741</v>
-      </c>
-      <c r="D24" t="inlineStr"/>
+        <v>0.0358143036458758</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Average Long Tail Items</t>
+          <t>Density</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-0.09207343256046649</v>
+        <v>-0.1107433485527697</v>
       </c>
       <c r="C25" t="n">
-        <v>0.007008651585492309</v>
+        <v>0.004600452931959081</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -822,66 +822,48 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Density</t>
+          <t>Rating per User</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-0.1065748205498003</v>
+        <v>-0.1581116932846432</v>
       </c>
       <c r="C26" t="n">
-        <v>0.006231328507627021</v>
+        <v>5.547155306766458e-14</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>**</t>
+          <t>***</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Rating per User</t>
+          <t>Sensitive Feature_Age</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-0.1674288090733634</v>
+        <v>-22653921516.60388</v>
       </c>
       <c r="C27" t="n">
-        <v>3.70534308181899e-15</v>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>0.9215514181914179</v>
+      </c>
+      <c r="D27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Sensitive Feature_Age</t>
+          <t>Sensitive Feature_Gender</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-41365211258.41577</v>
+        <v>-22653921516.6167</v>
       </c>
       <c r="C28" t="n">
-        <v>0.8799576879446878</v>
+        <v>0.9215514181913738</v>
       </c>
       <c r="D28" t="inlineStr"/>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Sensitive Feature_Gender</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>-41365211258.42932</v>
-      </c>
-      <c r="C29" t="n">
-        <v>0.8799576879446489</v>
-      </c>
-      <c r="D29" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/evaluation/accuracy_metric_based/OLS_Regression_Feature_Analysis_recall@5.xlsx
+++ b/evaluation/accuracy_metric_based/OLS_Regression_Feature_Analysis_recall@5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,412 +458,378 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>const</t>
+          <t>Gini Item</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10804857885.651</v>
+        <v>0.3185401558530252</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9215514181912757</v>
-      </c>
-      <c r="D2" t="inlineStr"/>
+        <v>8.195764533525217e-05</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Dataset_ml1m</t>
+          <t>KS Statistic of sensitive attribute</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7127554494.922028</v>
+        <v>0.2875158688244127</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9215514181904164</v>
-      </c>
-      <c r="D3" t="inlineStr"/>
+        <v>2.59787937601883e-34</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Dataset_BX</t>
+          <t>Rating per Item</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>7127554494.761841</v>
+        <v>0.1608057804608897</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9215514181921722</v>
-      </c>
-      <c r="D4" t="inlineStr"/>
+        <v>0.01338297328048397</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Model Name_FOCF</t>
+          <t>Overestimation Unfairness of sensitive attribute</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4721509136.258713</v>
+        <v>0.1580745355599867</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9215514181894879</v>
-      </c>
-      <c r="D5" t="inlineStr"/>
+        <v>5.385950123944535e-05</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Model Name_PFCN_MLP</t>
+          <t>Number of Users</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4721509136.135773</v>
+        <v>0.1494767077747452</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9215514181915243</v>
-      </c>
-      <c r="D6" t="inlineStr"/>
+        <v>0.02398739125054498</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Model Name_NFCF</t>
+          <t>Generalized Cross Entropy</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4721509136.053757</v>
+        <v>0.1431325326297941</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9215514181928827</v>
-      </c>
-      <c r="D7" t="inlineStr"/>
+        <v>0.01383296921402843</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Differential Fairness of sensitive attribute</t>
+          <t>Difference between Sensitive Attribute Percentage</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1836960146603769</v>
+        <v>0.1140544119793976</v>
       </c>
       <c r="C8" t="n">
-        <v>6.137370191109636e-15</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>0.181435917717968</v>
+      </c>
+      <c r="D8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Gini Item</t>
+          <t>Mean Rating</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.1381778295403043</v>
+        <v>0.08820177792504391</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0007222700242652128</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>0.6672911932584626</v>
+      </c>
+      <c r="D9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>KS Statistic of sensitive attribute</t>
+          <t>Differential Fairness of sensitive attribute</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.1058213492875401</v>
+        <v>0.07662324606838525</v>
       </c>
       <c r="C10" t="n">
-        <v>1.238767206067939e-10</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>0.4949937671164265</v>
+      </c>
+      <c r="D10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Rating per Item</t>
+          <t>Number of Items</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.06340545848077792</v>
+        <v>0.02352927880783677</v>
       </c>
       <c r="C11" t="n">
-        <v>0.05844266342452633</v>
+        <v>0.762470541672684</v>
       </c>
       <c r="D11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Overestimation Unfairness of sensitive attribute</t>
+          <t>Standart Deviation of Rating</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.0533587400408802</v>
+        <v>0.006558672628288662</v>
       </c>
       <c r="C12" t="n">
-        <v>0.03879145450175647</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
+        <v>0.9507337928463533</v>
+      </c>
+      <c r="D12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Generalized Cross Entropy</t>
+          <t>Skewness of Long Tail Items</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.04807609552366626</v>
+        <v>0.0008177460680149837</v>
       </c>
       <c r="C13" t="n">
-        <v>0.04499405714318765</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
+        <v>0.9814551615369096</v>
+      </c>
+      <c r="D13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Shape</t>
+          <t>Skewness of Popularity Bias</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.04237825883532416</v>
+        <v>-0.000755924722605418</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1659854740433405</v>
+        <v>0.9830031637625227</v>
       </c>
       <c r="D14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Number of Ratings</t>
+          <t>Gini User</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.02226731429593441</v>
+        <v>-0.006158743632365765</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6564654067908428</v>
+        <v>0.9097570751208636</v>
       </c>
       <c r="D15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Skewness of Popularity Bias</t>
+          <t>Value Unfairness of sensitive attribute</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.01901099996922841</v>
+        <v>-0.01350235588680478</v>
       </c>
       <c r="C16" t="n">
-        <v>0.3135269914755704</v>
+        <v>0.7495556677361814</v>
       </c>
       <c r="D16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Number of Users</t>
+          <t>Shape</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.01895883609083423</v>
+        <v>-0.06277948946315082</v>
       </c>
       <c r="C17" t="n">
-        <v>0.5628796263794136</v>
+        <v>0.3173874337153188</v>
       </c>
       <c r="D17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Number of Items</t>
+          <t>Dataset_BX</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.01831141174264909</v>
+        <v>-0.07331454311137503</v>
       </c>
       <c r="C18" t="n">
-        <v>0.5483944298281048</v>
+        <v>0.4574100160517662</v>
       </c>
       <c r="D18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Skewness of Long Tail Items</t>
+          <t>Number of Ratings</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.005573991996528464</v>
+        <v>-0.08952318838606063</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7619263609785027</v>
+        <v>0.373747065853086</v>
       </c>
       <c r="D19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Standart Deviation of Rating</t>
+          <t>Density</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.004464197366546439</v>
+        <v>-0.09921459336680723</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9356741291481981</v>
+        <v>0.1856713906659209</v>
       </c>
       <c r="D20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Mean Rating</t>
+          <t>Sensitive Feature_Gender</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.03156653961399447</v>
+        <v>-0.09982163949930091</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7672760412066514</v>
-      </c>
-      <c r="D21" t="inlineStr"/>
+        <v>0.01573595185068307</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Value Unfairness of sensitive attribute</t>
+          <t>Sensitive Feature_Age</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.03926810463679162</v>
+        <v>-0.1031735667490651</v>
       </c>
       <c r="C22" t="n">
-        <v>0.06674510793311036</v>
-      </c>
-      <c r="D22" t="inlineStr"/>
+        <v>0.02520520316548819</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Difference between Sensitive Attribute Percentage</t>
+          <t>Rating per User</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0.04232805633002051</v>
+        <v>-0.1078354701215111</v>
       </c>
       <c r="C23" t="n">
-        <v>0.3350105632566966</v>
-      </c>
-      <c r="D23" t="inlineStr"/>
+        <v>0.01378030528906579</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Gini User</t>
+          <t>Dataset_ml1m</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-0.05837107658000636</v>
+        <v>-0.1296806631369892</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0358143036458758</v>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
+        <v>0.3183138045895392</v>
+      </c>
+      <c r="D24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Density</t>
+          <t>const</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-0.1107433485527697</v>
+        <v>-0.2029952062483655</v>
       </c>
       <c r="C25" t="n">
-        <v>0.004600452931959081</v>
+        <v>0.01747037380084141</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>**</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Rating per User</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>-0.1581116932846432</v>
-      </c>
-      <c r="C26" t="n">
-        <v>5.547155306766458e-14</v>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Sensitive Feature_Age</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>-22653921516.60388</v>
-      </c>
-      <c r="C27" t="n">
-        <v>0.9215514181914179</v>
-      </c>
-      <c r="D27" t="inlineStr"/>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Sensitive Feature_Gender</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>-22653921516.6167</v>
-      </c>
-      <c r="C28" t="n">
-        <v>0.9215514181913738</v>
-      </c>
-      <c r="D28" t="inlineStr"/>
+          <t>*</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
